--- a/src/test/java/resources/Test.xlsx
+++ b/src/test/java/resources/Test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adars\workspace\POM_OCT_22\src\test\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C9F8EF-7B45-4D5D-93A7-5E5BBC9114E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EF3536-C367-40E0-B210-FCB2C233CC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Cities</t>
   </si>
@@ -365,8 +366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -387,7 +388,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -395,7 +396,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -403,7 +404,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -411,7 +412,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -419,7 +420,70 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>52</v>
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21780C22-6F9F-4BD7-A18D-77A94F6EABE8}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
